--- a/public/templates/Modele_Registre_Titres.xlsx
+++ b/public/templates/Modele_Registre_Titres.xlsx
@@ -1111,7 +1111,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" algorithmName="SHA-512" hashValue="bVNBmvENMjOt4Fbf4vGAXkU9mO6keGuCB/RMk9i4S3lLmQElCh/1gKPdvPSyRR0FUkfJOrs7pwuZaVvotodJtg==" saltValue="JDmlfUSHrjN+qDv+Jk7Phg==" spinCount="100000"/>
+  <sheetProtection sheet="1" algorithmName="SHA-512" hashValue="CZhEBXNvzDVn4+J3ZPuhkumzGewvoLGwteP09uGbegQ2AfWJ5ihNjOiyMdsfdkT9MDspc8o7QJmsoEocvXM60w==" saltValue="HRO34n77rao/cG/sWLYkgg==" spinCount="100000"/>
   <mergeCells count="1">
     <mergeCell ref="A1:A3"/>
   </mergeCells>
@@ -2265,7 +2265,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" algorithmName="SHA-512" hashValue="7TSNR8qQ5XZsoYQG5mkjG4CnTjC45N/1c0spClj04wpDSHLZa9yV+26SmrehayqTjUeW0yZ34SQmwkuu8MRjWw==" saltValue="pxDlbT1nEQI4rs7ry1uE7g==" spinCount="100000"/>
+  <sheetProtection sheet="1" algorithmName="SHA-512" hashValue="HaCsHs54Lmw2lR8byK8Z1Gi2OAuUlT63eP4oLVUMykzVu0+/jwR9L+Ujs9tgr7cTwrk7VQhY2joQzKGQe2KqRw==" saltValue="6TaxuCgmSClAmnZ4XnZ1rw==" spinCount="100000"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>

--- a/public/templates/Modele_Registre_Titres.xlsx
+++ b/public/templates/Modele_Registre_Titres.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="78">
   <si>
     <t>Personnes Physiques</t>
   </si>
@@ -183,10 +183,7 @@
     <t>Client Professionnel</t>
   </si>
   <si>
-    <t>GUIDE D'UTILISATION</t>
-  </si>
-  <si>
-    <t>ETAPES</t>
+    <t>ETAPES:</t>
   </si>
   <si>
     <t>1. Allez sur l'onglet "Registre" (premier onglet)</t>
@@ -198,194 +195,65 @@
     <t>3. Remplissez la section "Personnes Morales" pour les entreprises</t>
   </si>
   <si>
-    <t>4. Supprimez les lignes "EXEMPLE" avant l'import (ou laissez-les, elles seront ignorees)</t>
-  </si>
-  <si>
-    <t>5. Enregistrez le fichier et importez-le dans Finixar</t>
-  </si>
-  <si>
-    <t>COLONNES</t>
-  </si>
-  <si>
-    <t>Les colonnes sur fond BLEU sont OBLIGATOIRES - vous devez les remplir</t>
-  </si>
-  <si>
-    <t>Les colonnes sur fond GRIS sont OPTIONNELLES - remplissez-les si vous avez l'information</t>
-  </si>
-  <si>
-    <t>Les lignes JAUNES sont des exemples - elles ne seront pas importees</t>
-  </si>
-  <si>
-    <t>FORMATS ATTENDUS</t>
-  </si>
-  <si>
-    <t>Dates: jj/mm/aaaa (exemple: 15/03/1980)</t>
-  </si>
-  <si>
-    <t>E-mail: format valide avec @ (exemple: nom@domaine.fr)</t>
-  </si>
-  <si>
-    <t>SIREN: exactement 9 chiffres (exemple: 123456789)</t>
-  </si>
-  <si>
-    <t>Telephone: avec ou sans indicatif (exemple: +33612345678 ou 0612345678)</t>
-  </si>
-  <si>
-    <t>Montants: nombres (exemple: 10000 ou 10000.50)</t>
-  </si>
-  <si>
-    <t>CONSEILS</t>
-  </si>
-  <si>
-    <t>Utilisez les listes deroulantes quand elles sont disponibles (PPE, Categorisation, etc.)</t>
-  </si>
-  <si>
-    <t>Survolez les en-tetes de colonnes pour voir les explications</t>
-  </si>
-  <si>
-    <t>Ne modifiez pas les en-tetes de colonnes</t>
-  </si>
-  <si>
-    <t>Gardez la structure avec les deux sections separees</t>
-  </si>
-  <si>
-    <t>SUPPORT</t>
-  </si>
-  <si>
-    <t>En cas de probleme, contactez le support Finixar</t>
-  </si>
-  <si>
-    <t>Consultez la documentation en ligne pour plus de details</t>
-  </si>
-  <si>
-    <t>DICTIONNAIRE DES CHAMPS</t>
-  </si>
-  <si>
-    <t>Champ</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Obligatoire</t>
-  </si>
-  <si>
-    <t>PERSONNES PHYSIQUES</t>
-  </si>
-  <si>
-    <t>Nombre d'obligations souscrites (nombre entier)</t>
-  </si>
-  <si>
-    <t>Oui</t>
-  </si>
-  <si>
-    <t>Montant total investi en euros</t>
-  </si>
-  <si>
-    <t>Nom(s) de famille de l'investisseur</t>
-  </si>
-  <si>
-    <t>Prénom(s) de l'investisseur</t>
-  </si>
-  <si>
-    <t>Adresse e-mail valide</t>
-  </si>
-  <si>
-    <t>Format: +33612345678 ou 0612345678</t>
-  </si>
-  <si>
-    <t>Date de naissance (jj/mm/aaaa)</t>
-  </si>
-  <si>
-    <t>Ville de naissance</t>
-  </si>
-  <si>
-    <t>Numéro du département</t>
-  </si>
-  <si>
-    <t>Adresse complète</t>
-  </si>
-  <si>
-    <t>Pays de résidence fiscale</t>
-  </si>
-  <si>
-    <t>Personne Politiquement Exposée</t>
-  </si>
-  <si>
-    <t>Catégorie MiFID</t>
-  </si>
-  <si>
-    <t>Date de souscription (jj/mm/aaaa)</t>
-  </si>
-  <si>
-    <t>Nom d'usage si différent</t>
-  </si>
-  <si>
-    <t>Date de validation back-office</t>
-  </si>
-  <si>
-    <t>Compte PEA actif</t>
-  </si>
-  <si>
-    <t>Numéro du compte PEA si applicable</t>
-  </si>
-  <si>
-    <t>Nom du Conseiller en Gestion de Patrimoine</t>
-  </si>
-  <si>
-    <t>Code identifiant du CGP</t>
-  </si>
-  <si>
-    <t>SIREN du CGP (9 chiffres)</t>
-  </si>
-  <si>
-    <t>PERSONNES MORALES</t>
-  </si>
-  <si>
-    <t>Nombre d'obligations souscrites</t>
-  </si>
-  <si>
-    <t>Dénomination sociale de l'entreprise</t>
-  </si>
-  <si>
-    <t>Numéro SIREN (exactement 9 chiffres)</t>
-  </si>
-  <si>
-    <t>Prénom du représentant</t>
-  </si>
-  <si>
-    <t>Nom du représentant</t>
-  </si>
-  <si>
-    <t>Téléphone de l'entreprise</t>
-  </si>
-  <si>
-    <t>Adresse complète du siège</t>
-  </si>
-  <si>
-    <t>Pays de résidence fiscale du représentant</t>
-  </si>
-  <si>
-    <t>Représentant Politiquement Exposé</t>
-  </si>
-  <si>
-    <t>Compte PEA-PME actif</t>
-  </si>
-  <si>
-    <t>Numéro du compte si applicable</t>
-  </si>
-  <si>
-    <t>Conseiller en Gestion de Patrimoine</t>
-  </si>
-  <si>
-    <t>SIREN du CGP</t>
+    <t>4. Les lignes jaunes "EXEMPLE" seront ignorées lors de l'import</t>
+  </si>
+  <si>
+    <t>5. Enregistrez et importez le fichier dans Finixar</t>
+  </si>
+  <si>
+    <t>COLONNES:</t>
+  </si>
+  <si>
+    <t>- Fond BLEU/VERT = OBLIGATOIRE</t>
+  </si>
+  <si>
+    <t>- Fond GRIS = OPTIONNEL</t>
+  </si>
+  <si>
+    <t>- Fond JAUNE = Exemple (ignoré)</t>
+  </si>
+  <si>
+    <t>FORMATS:</t>
+  </si>
+  <si>
+    <t>- Dates: jj/mm/aaaa (ex: 15/03/1980)</t>
+  </si>
+  <si>
+    <t>- E-mail: format valide avec @</t>
+  </si>
+  <si>
+    <t>- SIREN: exactement 9 chiffres</t>
+  </si>
+  <si>
+    <t>- Téléphone: +33612345678 ou 0612345678</t>
+  </si>
+  <si>
+    <t>CONSEILS:</t>
+  </si>
+  <si>
+    <t>- Utilisez les listes déroulantes (PPE, Catégorisation, etc.)</t>
+  </si>
+  <si>
+    <t>- Ne modifiez pas les en-têtes de colonnes</t>
+  </si>
+  <si>
+    <t>- Gardez les deux sections séparées</t>
+  </si>
+  <si>
+    <t>CHAMPS OBLIGATOIRES</t>
+  </si>
+  <si>
+    <t>Personnes Physiques:</t>
+  </si>
+  <si>
+    <t>Personnes Morales:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -430,32 +298,21 @@
     <font>
       <b/>
       <color rgb="FF1E40AF"/>
-      <sz val="13"/>
     </font>
     <font>
       <b/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="14"/>
     </font>
     <font>
       <b/>
       <color rgb="FF2563EB"/>
     </font>
     <font>
-      <color rgb="FF059669"/>
-    </font>
-    <font>
-      <color rgb="FF6B7280"/>
-    </font>
-    <font>
       <b/>
       <color rgb="FF059669"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,18 +374,8 @@
         <fgColor rgb="FF10B981"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8FAFC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBBF24"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -536,56 +383,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFCD34D"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFCD34D"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFCD34D"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFCD34D"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE5E7EB"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE5E7EB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE5E7EB"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE5E7EB"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -596,39 +398,30 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1854,11 +1647,11 @@
       </c>
     </row>
     <row r="31" ht="22" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -1877,11 +1670,11 @@
       <c r="U31" s="8"/>
     </row>
     <row r="32" ht="22" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -1900,11 +1693,11 @@
       <c r="U32" s="8"/>
     </row>
     <row r="33" ht="22" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -1923,11 +1716,11 @@
       <c r="U33" s="8"/>
     </row>
     <row r="34" ht="22" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -1946,11 +1739,11 @@
       <c r="U34" s="8"/>
     </row>
     <row r="35" ht="22" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -1969,11 +1762,11 @@
       <c r="U35" s="8"/>
     </row>
     <row r="36" ht="22" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -1992,11 +1785,11 @@
       <c r="U36" s="8"/>
     </row>
     <row r="37" ht="22" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -2015,11 +1808,11 @@
       <c r="U37" s="8"/>
     </row>
     <row r="38" ht="22" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -2038,11 +1831,11 @@
       <c r="U38" s="8"/>
     </row>
     <row r="39" ht="22" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -2061,11 +1854,11 @@
       <c r="U39" s="8"/>
     </row>
     <row r="40" ht="22" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -2084,11 +1877,11 @@
       <c r="U40" s="8"/>
     </row>
     <row r="41" ht="22" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -2107,11 +1900,11 @@
       <c r="U41" s="8"/>
     </row>
     <row r="42" ht="22" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -2130,11 +1923,11 @@
       <c r="U42" s="8"/>
     </row>
     <row r="43" ht="22" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -2153,11 +1946,11 @@
       <c r="U43" s="8"/>
     </row>
     <row r="44" ht="22" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -2176,11 +1969,11 @@
       <c r="U44" s="8"/>
     </row>
     <row r="45" ht="22" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -2199,11 +1992,11 @@
       <c r="U45" s="8"/>
     </row>
     <row r="46" ht="22" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -2222,11 +2015,11 @@
       <c r="U46" s="8"/>
     </row>
     <row r="47" ht="22" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -2245,11 +2038,11 @@
       <c r="U47" s="8"/>
     </row>
     <row r="48" ht="22" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -2268,11 +2061,11 @@
       <c r="U48" s="8"/>
     </row>
     <row r="49" ht="22" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
@@ -2291,11 +2084,11 @@
       <c r="U49" s="8"/>
     </row>
     <row r="50" ht="22" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -2322,163 +2115,43 @@
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="F28:V28"/>
   </mergeCells>
-  <dataValidations count="116">
-    <dataValidation showInputMessage="1" promptTitle="Quantité" prompt="Nombre d'obligations souscrites (nombre entier)" sqref="A10:A24"/>
-    <dataValidation showInputMessage="1" promptTitle="Quantité" prompt="Nombre d'obligations souscrites" sqref="A29"/>
-    <dataValidation showInputMessage="1" promptTitle="Quantité" prompt="Nombre d'obligations souscrites (nombre entier)" sqref="A3"/>
-    <dataValidation showInputMessage="1" promptTitle="Quantité" prompt="Nombre d'obligations souscrites" sqref="A31:A50"/>
-    <dataValidation showInputMessage="1" promptTitle="Quantité" prompt="Nombre d'obligations souscrites (nombre entier)" sqref="A5:A24"/>
-    <dataValidation showInputMessage="1" promptTitle="Montant" prompt="Montant total investi en euros" sqref="B10:B24"/>
-    <dataValidation showInputMessage="1" promptTitle="Montant" prompt="Montant total investi en euros" sqref="B29"/>
-    <dataValidation showInputMessage="1" promptTitle="Montant" prompt="Montant total investi en euros" sqref="B3"/>
-    <dataValidation showInputMessage="1" promptTitle="Montant" prompt="Montant total investi en euros" sqref="B31:B50"/>
-    <dataValidation showInputMessage="1" promptTitle="Montant" prompt="Montant total investi en euros" sqref="B5:B24"/>
-    <dataValidation showInputMessage="1" promptTitle="Nom(s)" prompt="Nom(s) de famille de l'investisseur" sqref="C10:C24"/>
-    <dataValidation showInputMessage="1" promptTitle="Raison sociale" prompt="Dénomination sociale de l'entreprise" sqref="C29"/>
-    <dataValidation showInputMessage="1" promptTitle="Nom(s)" prompt="Nom(s) de famille de l'investisseur" sqref="C3"/>
-    <dataValidation showInputMessage="1" promptTitle="Raison sociale" prompt="Dénomination sociale de l'entreprise" sqref="C31:C50"/>
-    <dataValidation showInputMessage="1" promptTitle="Nom(s)" prompt="Nom(s) de famille de l'investisseur" sqref="C5:C24"/>
-    <dataValidation showInputMessage="1" promptTitle="Prénom(s)" prompt="Prénom(s) de l'investisseur" sqref="D10:D24"/>
-    <dataValidation showInputMessage="1" promptTitle="N° SIREN" prompt="Numéro SIREN (exactement 9 chiffres)" sqref="D29"/>
-    <dataValidation showInputMessage="1" promptTitle="Prénom(s)" prompt="Prénom(s) de l'investisseur" sqref="D3"/>
-    <dataValidation showInputMessage="1" promptTitle="N° SIREN" prompt="Numéro SIREN (exactement 9 chiffres)" sqref="D31:D50"/>
-    <dataValidation showInputMessage="1" promptTitle="Prénom(s)" prompt="Prénom(s) de l'investisseur" sqref="D5:D24"/>
-    <dataValidation showInputMessage="1" promptTitle="E-mail" prompt="Adresse e-mail valide" sqref="E10:E24"/>
-    <dataValidation showInputMessage="1" promptTitle="E-mail du représentant légal" prompt="E-mail du représentant légal" sqref="E29"/>
-    <dataValidation showInputMessage="1" promptTitle="E-mail" prompt="Adresse e-mail valide" sqref="E3"/>
-    <dataValidation showInputMessage="1" promptTitle="E-mail du représentant légal" prompt="E-mail du représentant légal" sqref="E31:E50"/>
-    <dataValidation showInputMessage="1" promptTitle="E-mail" prompt="Adresse e-mail valide" sqref="E5:E24"/>
-    <dataValidation showInputMessage="1" promptTitle="Téléphone" prompt="Format: +33612345678 ou 0612345678" sqref="F10:F24"/>
-    <dataValidation showInputMessage="1" promptTitle="Prénom du représentant légal" prompt="Prénom du représentant" sqref="F29"/>
-    <dataValidation showInputMessage="1" promptTitle="Téléphone" prompt="Format: +33612345678 ou 0612345678" sqref="F3"/>
-    <dataValidation showInputMessage="1" promptTitle="Prénom du représentant légal" prompt="Prénom du représentant" sqref="F31:F50"/>
-    <dataValidation showInputMessage="1" promptTitle="Téléphone" prompt="Format: +33612345678 ou 0612345678" sqref="F5:F24"/>
-    <dataValidation showInputMessage="1" promptTitle="Né(e) le" prompt="Date de naissance (jj/mm/aaaa)" sqref="G10:G24"/>
-    <dataValidation showInputMessage="1" promptTitle="Nom du représentant légal" prompt="Nom du représentant" sqref="G29"/>
-    <dataValidation showInputMessage="1" promptTitle="Né(e) le" prompt="Date de naissance (jj/mm/aaaa)" sqref="G3"/>
-    <dataValidation showInputMessage="1" promptTitle="Nom du représentant légal" prompt="Nom du représentant" sqref="G31:G50"/>
-    <dataValidation showInputMessage="1" promptTitle="Né(e) le" prompt="Date de naissance (jj/mm/aaaa)" sqref="G5:G24"/>
-    <dataValidation showInputMessage="1" promptTitle="Lieu de naissance" prompt="Ville de naissance" sqref="H10:H24"/>
-    <dataValidation showInputMessage="1" promptTitle="Téléphone" prompt="Téléphone de l'entreprise" sqref="H29"/>
-    <dataValidation showInputMessage="1" promptTitle="Lieu de naissance" prompt="Ville de naissance" sqref="H3"/>
-    <dataValidation showInputMessage="1" promptTitle="Téléphone" prompt="Téléphone de l'entreprise" sqref="H31:H50"/>
-    <dataValidation showInputMessage="1" promptTitle="Lieu de naissance" prompt="Ville de naissance" sqref="H5:H24"/>
-    <dataValidation showInputMessage="1" promptTitle="Département de naissance" prompt="Numéro du département" sqref="I10:I24"/>
-    <dataValidation showInputMessage="1" promptTitle="Adresse du siège social" prompt="Adresse complète du siège" sqref="I29"/>
-    <dataValidation showInputMessage="1" promptTitle="Département de naissance" prompt="Numéro du département" sqref="I3"/>
-    <dataValidation showInputMessage="1" promptTitle="Adresse du siège social" prompt="Adresse complète du siège" sqref="I31:I50"/>
-    <dataValidation showInputMessage="1" promptTitle="Département de naissance" prompt="Numéro du département" sqref="I5:I24"/>
-    <dataValidation showInputMessage="1" promptTitle="Adresse du domicile" prompt="Adresse complète" sqref="J10:J24"/>
-    <dataValidation showInputMessage="1" promptTitle="Résidence Fiscale 1 du représentant légal" prompt="Pays de résidence fiscale du représentant" sqref="J29"/>
-    <dataValidation showInputMessage="1" promptTitle="Adresse du domicile" prompt="Adresse complète" sqref="J3"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Valeur invalide" error="Veuillez choisir parmi: France, Belgique, Suisse, Luxembourg, Autre" sqref="J30">
+  <dataValidations count="12">
+    <dataValidation type="list" allowBlank="1" sqref="J30:J50">
       <formula1>"France,Belgique,Suisse,Luxembourg,Autre"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="Résidence Fiscale 1 du représentant légal" prompt="Pays de résidence fiscale du représentant" showErrorMessage="1" errorTitle="Valeur invalide" error="Veuillez choisir parmi: France, Belgique, Suisse, Luxembourg, Autre" sqref="J31:J50">
+    <dataValidation type="list" allowBlank="1" sqref="K10:K24">
       <formula1>"France,Belgique,Suisse,Luxembourg,Autre"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" promptTitle="Adresse du domicile" prompt="Adresse complète" sqref="J5:J24"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="Résidence Fiscale 1" prompt="Pays de résidence fiscale" showErrorMessage="1" errorTitle="Valeur invalide" error="Veuillez choisir parmi: France, Belgique, Suisse, Luxembourg, Autre" sqref="K10:K24">
+    <dataValidation type="list" allowBlank="1" sqref="K4:K24">
       <formula1>"France,Belgique,Suisse,Luxembourg,Autre"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" promptTitle="Département de naissance du représentant" prompt="Département de naissance du représentant" sqref="K29"/>
-    <dataValidation showInputMessage="1" promptTitle="Résidence Fiscale 1" prompt="Pays de résidence fiscale" sqref="K3"/>
-    <dataValidation showInputMessage="1" promptTitle="Département de naissance du représentant" prompt="Département de naissance du représentant" sqref="K31:K50"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Valeur invalide" error="Veuillez choisir parmi: France, Belgique, Suisse, Luxembourg, Autre" sqref="K4">
-      <formula1>"France,Belgique,Suisse,Luxembourg,Autre"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="Résidence Fiscale 1" prompt="Pays de résidence fiscale" showErrorMessage="1" errorTitle="Valeur invalide" error="Veuillez choisir parmi: France, Belgique, Suisse, Luxembourg, Autre" sqref="K5:K24">
-      <formula1>"France,Belgique,Suisse,Luxembourg,Autre"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="PPE" prompt="Personne Politiquement Exposée" showErrorMessage="1" errorTitle="Valeur invalide" error="Veuillez choisir parmi: Oui, Non" sqref="L10:L24">
+    <dataValidation type="list" allowBlank="1" sqref="L10:L24">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" promptTitle="PPE" prompt="Représentant Politiquement Exposé" sqref="L29"/>
-    <dataValidation showInputMessage="1" promptTitle="PPE" prompt="Personne Politiquement Exposée" sqref="L3"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Valeur invalide" error="Veuillez choisir parmi: Oui, Non" sqref="L30">
+    <dataValidation type="list" allowBlank="1" sqref="L30:L50">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="PPE" prompt="Représentant Politiquement Exposé" showErrorMessage="1" errorTitle="Valeur invalide" error="Veuillez choisir parmi: Oui, Non" sqref="L31:L50">
+    <dataValidation type="list" allowBlank="1" sqref="L4:L24">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Valeur invalide" error="Veuillez choisir parmi: Oui, Non" sqref="L4">
+    <dataValidation type="list" allowBlank="1" sqref="M10:M24">
+      <formula1>"Client Professionnel,Client Non Professionnel,Contrepartie Éligible"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="M30:M50">
+      <formula1>"Client Professionnel,Client Non Professionnel,Contrepartie Éligible"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="M4:M24">
+      <formula1>"Client Professionnel,Client Non Professionnel,Contrepartie Éligible"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="P30:P50">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="PPE" prompt="Personne Politiquement Exposée" showErrorMessage="1" errorTitle="Valeur invalide" error="Veuillez choisir parmi: Oui, Non" sqref="L5:L24">
+    <dataValidation type="list" allowBlank="1" sqref="Q10:Q24">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="Catégorisation" prompt="Catégorie MiFID" showErrorMessage="1" errorTitle="Valeur invalide" error="Veuillez choisir parmi: Client Professionnel, Client Non Professionnel, Contrepartie Éligible" sqref="M10:M24">
-      <formula1>"Client Professionnel,Client Non Professionnel,Contrepartie Éligible"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" promptTitle="Catégorisation" prompt="Catégorie MiFID" sqref="M29"/>
-    <dataValidation showInputMessage="1" promptTitle="Catégorisation" prompt="Catégorie MiFID" sqref="M3"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Valeur invalide" error="Veuillez choisir parmi: Client Professionnel, Client Non Professionnel, Contrepartie Éligible" sqref="M30">
-      <formula1>"Client Professionnel,Client Non Professionnel,Contrepartie Éligible"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="Catégorisation" prompt="Catégorie MiFID" showErrorMessage="1" errorTitle="Valeur invalide" error="Veuillez choisir parmi: Client Professionnel, Client Non Professionnel, Contrepartie Éligible" sqref="M31:M50">
-      <formula1>"Client Professionnel,Client Non Professionnel,Contrepartie Éligible"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Valeur invalide" error="Veuillez choisir parmi: Client Professionnel, Client Non Professionnel, Contrepartie Éligible" sqref="M4">
-      <formula1>"Client Professionnel,Client Non Professionnel,Contrepartie Éligible"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="Catégorisation" prompt="Catégorie MiFID" showErrorMessage="1" errorTitle="Valeur invalide" error="Veuillez choisir parmi: Client Professionnel, Client Non Professionnel, Contrepartie Éligible" sqref="M5:M24">
-      <formula1>"Client Professionnel,Client Non Professionnel,Contrepartie Éligible"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" promptTitle="Date de Transfert" prompt="Date de souscription (jj/mm/aaaa)" sqref="N10:N24"/>
-    <dataValidation showInputMessage="1" promptTitle="Date de Transfert" prompt="Date de souscription (jj/mm/aaaa)" sqref="N29"/>
-    <dataValidation showInputMessage="1" promptTitle="Date de Transfert" prompt="Date de souscription (jj/mm/aaaa)" sqref="N3"/>
-    <dataValidation showInputMessage="1" promptTitle="Date de Transfert" prompt="Date de souscription (jj/mm/aaaa)" sqref="N31:N50"/>
-    <dataValidation showInputMessage="1" promptTitle="Date de Transfert" prompt="Date de souscription (jj/mm/aaaa)" sqref="N5:N24"/>
-    <dataValidation showInputMessage="1" promptTitle="Nom d'usage" prompt="Nom d'usage si différent" sqref="O10:O24"/>
-    <dataValidation showInputMessage="1" promptTitle="Date de Validation BS" prompt="Date de validation back-office" sqref="O29"/>
-    <dataValidation showInputMessage="1" promptTitle="Nom d'usage" prompt="Nom d'usage si différent" sqref="O3"/>
-    <dataValidation showInputMessage="1" promptTitle="Date de Validation BS" prompt="Date de validation back-office" sqref="O31:O50"/>
-    <dataValidation showInputMessage="1" promptTitle="Nom d'usage" prompt="Nom d'usage si différent" sqref="O5:O24"/>
-    <dataValidation showInputMessage="1" promptTitle="Date de Validation BS" prompt="Date de validation back-office" sqref="P10:P24"/>
-    <dataValidation showInputMessage="1" promptTitle="PEA / PEA-PME" prompt="Compte PEA-PME actif" sqref="P29"/>
-    <dataValidation showInputMessage="1" promptTitle="Date de Validation BS" prompt="Date de validation back-office" sqref="P3"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Valeur invalide" error="Veuillez choisir parmi: Oui, Non" sqref="P30">
+    <dataValidation type="list" allowBlank="1" sqref="Q4:Q24">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="PEA / PEA-PME" prompt="Compte PEA-PME actif" showErrorMessage="1" errorTitle="Valeur invalide" error="Veuillez choisir parmi: Oui, Non" sqref="P31:P50">
-      <formula1>"Oui,Non"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" promptTitle="Date de Validation BS" prompt="Date de validation back-office" sqref="P5:P24"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="PEA / PEA-PME" prompt="Compte PEA actif" showErrorMessage="1" errorTitle="Valeur invalide" error="Veuillez choisir parmi: Oui, Non" sqref="Q10:Q24">
-      <formula1>"Oui,Non"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" promptTitle="Numéro de Compte PEA / PEA-PME" prompt="Numéro du compte si applicable" sqref="Q29"/>
-    <dataValidation showInputMessage="1" promptTitle="PEA / PEA-PME" prompt="Compte PEA actif" sqref="Q3"/>
-    <dataValidation showInputMessage="1" promptTitle="Numéro de Compte PEA / PEA-PME" prompt="Numéro du compte si applicable" sqref="Q31:Q50"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Valeur invalide" error="Veuillez choisir parmi: Oui, Non" sqref="Q4">
-      <formula1>"Oui,Non"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="PEA / PEA-PME" prompt="Compte PEA actif" showErrorMessage="1" errorTitle="Valeur invalide" error="Veuillez choisir parmi: Oui, Non" sqref="Q5:Q24">
-      <formula1>"Oui,Non"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" promptTitle="Numéro de Compte PEA / PEA-PME" prompt="Numéro du compte PEA si applicable" sqref="R10:R24"/>
-    <dataValidation showInputMessage="1" promptTitle="CGP" prompt="Conseiller en Gestion de Patrimoine" sqref="R29"/>
-    <dataValidation showInputMessage="1" promptTitle="Numéro de Compte PEA / PEA-PME" prompt="Numéro du compte PEA si applicable" sqref="R3"/>
-    <dataValidation showInputMessage="1" promptTitle="CGP" prompt="Conseiller en Gestion de Patrimoine" sqref="R31:R50"/>
-    <dataValidation showInputMessage="1" promptTitle="Numéro de Compte PEA / PEA-PME" prompt="Numéro du compte PEA si applicable" sqref="R5:R24"/>
-    <dataValidation showInputMessage="1" promptTitle="CGP" prompt="Nom du Conseiller en Gestion de Patrimoine" sqref="S10:S24"/>
-    <dataValidation showInputMessage="1" promptTitle="E-mail du CGP" prompt="E-mail du CGP" sqref="S29"/>
-    <dataValidation showInputMessage="1" promptTitle="CGP" prompt="Nom du Conseiller en Gestion de Patrimoine" sqref="S3"/>
-    <dataValidation showInputMessage="1" promptTitle="E-mail du CGP" prompt="E-mail du CGP" sqref="S31:S50"/>
-    <dataValidation showInputMessage="1" promptTitle="CGP" prompt="Nom du Conseiller en Gestion de Patrimoine" sqref="S5:S24"/>
-    <dataValidation showInputMessage="1" promptTitle="E-mail du CGP" prompt="E-mail du CGP" sqref="T10:T24"/>
-    <dataValidation showInputMessage="1" promptTitle="Code du CGP" prompt="Code du CGP" sqref="T29"/>
-    <dataValidation showInputMessage="1" promptTitle="E-mail du CGP" prompt="E-mail du CGP" sqref="T3"/>
-    <dataValidation showInputMessage="1" promptTitle="Code du CGP" prompt="Code du CGP" sqref="T31:T50"/>
-    <dataValidation showInputMessage="1" promptTitle="E-mail du CGP" prompt="E-mail du CGP" sqref="T5:T24"/>
-    <dataValidation showInputMessage="1" promptTitle="Code du CGP" prompt="Code identifiant du CGP" sqref="U10:U24"/>
-    <dataValidation showInputMessage="1" promptTitle="Siren du CGP" prompt="SIREN du CGP" sqref="U29"/>
-    <dataValidation showInputMessage="1" promptTitle="Code du CGP" prompt="Code identifiant du CGP" sqref="U3"/>
-    <dataValidation showInputMessage="1" promptTitle="Siren du CGP" prompt="SIREN du CGP" sqref="U31:U50"/>
-    <dataValidation showInputMessage="1" promptTitle="Code du CGP" prompt="Code identifiant du CGP" sqref="U5:U24"/>
-    <dataValidation showInputMessage="1" promptTitle="Siren du CGP" prompt="SIREN du CGP (9 chiffres)" sqref="V10:V24"/>
-    <dataValidation showInputMessage="1" promptTitle="Siren du CGP" prompt="SIREN du CGP (9 chiffres)" sqref="V3"/>
-    <dataValidation showInputMessage="1" promptTitle="Siren du CGP" prompt="SIREN du CGP (9 chiffres)" sqref="V5:V24"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -2490,43 +2163,50 @@
   <sheetPr>
     <tabColor rgb="FF2563EB"/>
   </sheetPr>
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A23"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>57</v>
+      <c r="A4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>58</v>
+      <c r="A5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>59</v>
+      <c r="A6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>60</v>
+      <c r="A7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>61</v>
+      <c r="A8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -2534,19 +2214,24 @@
         <v>62</v>
       </c>
     </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>63</v>
+      <c r="A11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>64</v>
+      <c r="A12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>65</v>
+      <c r="A13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -2554,24 +2239,29 @@
         <v>66</v>
       </c>
     </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>67</v>
+      <c r="A16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>68</v>
+      <c r="A17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>69</v>
+      <c r="A18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>70</v>
+      <c r="A19" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -2580,55 +2270,21 @@
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" t="s">
         <v>72</v>
       </c>
     </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection sheet="1" algorithmName="SHA-512" hashValue="BrCOYZoYtL9McfH1tQ0UanFf09PAf9q13XNM9pZ1kk1J+FyMGsaPZdrkah3fq4lYcmmAyNE7xIWe90sBQHvTIw==" saltValue="D4E2aIbMr0O2mvO5df3OEw==" spinCount="100000"/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
@@ -2639,520 +2295,79 @@
   <sheetPr>
     <tabColor rgb="FFFBBF24"/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:A15"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="60" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" algorithmName="SHA-512" hashValue="dDIHhLkxevbqbn4BdvVb5xiO6EPLb5awWp0LWDq7J+aY6I9qb0v5xqqWsS32QcFyJF68VKWq7B3Ein+O3pcMIQ==" saltValue="Fnuh8RnpIIqIUp3yEyS+pw==" spinCount="100000"/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>

--- a/public/templates/Modele_Registre_Titres.xlsx
+++ b/public/templates/Modele_Registre_Titres.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
   <si>
     <t>📋 MODÈLE REGISTRE DES TITRES</t>
   </si>
@@ -60,19 +60,28 @@
     <t>• Nom(s), Prénom(s)</t>
   </si>
   <si>
-    <t>• E-mail</t>
+    <t>• E-mail, Téléphone</t>
+  </si>
+  <si>
+    <t>• Date de naissance, Lieu de naissance</t>
+  </si>
+  <si>
+    <t>• Adresse, Résidence Fiscale</t>
+  </si>
+  <si>
+    <t>• Date de Transfert</t>
   </si>
   <si>
     <t>Personnes Morales :</t>
   </si>
   <si>
-    <t>• Raison sociale</t>
-  </si>
-  <si>
-    <t>• N° SIREN (9 chiffres)</t>
-  </si>
-  <si>
-    <t>• E-mail du représentant légal</t>
+    <t>• Raison sociale, N° SIREN (9 chiffres)</t>
+  </si>
+  <si>
+    <t>• E-mail du représentant légal, Téléphone</t>
+  </si>
+  <si>
+    <t>• Adresse du siège social</t>
   </si>
   <si>
     <t>📐 Formats attendus</t>
@@ -84,15 +93,12 @@
     <t>• E-mail : doit contenir un @</t>
   </si>
   <si>
-    <t>• SIREN : exactement 9 chiffres</t>
+    <t>• SIREN : exactement 9 chiffres (personnes morales uniquement)</t>
   </si>
   <si>
     <t>• Téléphone : numéros avec ou sans +</t>
   </si>
   <si>
-    <t>• PPE : Oui ou Non</t>
-  </si>
-  <si>
     <t>• Montants : nombres décimaux acceptés</t>
   </si>
   <si>
@@ -117,9 +123,6 @@
     <t>Prénom(s) *</t>
   </si>
   <si>
-    <t>Nom d'usage</t>
-  </si>
-  <si>
     <t>E-mail *</t>
   </si>
   <si>
@@ -141,153 +144,108 @@
     <t>Résidence Fiscale 1 *</t>
   </si>
   <si>
-    <t>PPE *</t>
-  </si>
-  <si>
-    <t>Catégorisation *</t>
-  </si>
-  <si>
     <t>Date de Transfert *</t>
   </si>
   <si>
-    <t>Date de Validation BS</t>
-  </si>
-  <si>
-    <t>PEA / PEA-PME</t>
-  </si>
-  <si>
-    <t>Numéro de Compte PEA / PEA-PME</t>
-  </si>
-  <si>
     <t>CGP</t>
   </si>
   <si>
     <t>E-mail du CGP</t>
   </si>
   <si>
-    <t>Code du CGP</t>
-  </si>
-  <si>
-    <t>Siren du CGP</t>
-  </si>
-  <si>
     <t>Dupont</t>
   </si>
   <si>
     <t>Jean</t>
   </si>
   <si>
+    <t>jean.dupont@exemple.fr</t>
+  </si>
+  <si>
+    <t>+33612345678</t>
+  </si>
+  <si>
+    <t>15/03/1980</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>75 - Paris</t>
+  </si>
+  <si>
+    <t>123 Rue de la République, 75001 Paris</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>01/01/2024</t>
+  </si>
+  <si>
+    <t>Cabinet Dupuis</t>
+  </si>
+  <si>
+    <t>contact@cabinet-dupuis.fr</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>sophie.martin@exemple.fr</t>
+  </si>
+  <si>
+    <t>0687654321</t>
+  </si>
+  <si>
+    <t>22/07/1975</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>69 - Rhône</t>
+  </si>
+  <si>
+    <t>45 Avenue des Champs, 69001 Lyon</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>jean.dupont@exemple.fr</t>
-  </si>
-  <si>
-    <t>+33612345678</t>
-  </si>
-  <si>
-    <t>15/03/1980</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>75 - Paris</t>
-  </si>
-  <si>
-    <t>123 Rue de la République, 75001 Paris</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Non</t>
-  </si>
-  <si>
-    <t>Client Professionnel</t>
-  </si>
-  <si>
-    <t>01/01/2024</t>
-  </si>
-  <si>
-    <t>05/01/2024</t>
-  </si>
-  <si>
-    <t>Oui</t>
-  </si>
-  <si>
-    <t>PEA123456789</t>
-  </si>
-  <si>
-    <t>Cabinet Dupuis</t>
-  </si>
-  <si>
-    <t>contact@cabinet-dupuis.fr</t>
-  </si>
-  <si>
-    <t>CGP001</t>
+    <t>Personnes Morales</t>
+  </si>
+  <si>
+    <t>Raison sociale *</t>
+  </si>
+  <si>
+    <t>N° SIREN *</t>
+  </si>
+  <si>
+    <t>E-mail du représentant légal *</t>
+  </si>
+  <si>
+    <t>Prénom du représentant légal</t>
+  </si>
+  <si>
+    <t>Nom du représentant légal</t>
+  </si>
+  <si>
+    <t>Adresse du siège social *</t>
+  </si>
+  <si>
+    <t>Département de naissance du représentant</t>
+  </si>
+  <si>
+    <t>ACME Corporation</t>
   </si>
   <si>
     <t>123456789</t>
   </si>
   <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Sophie</t>
-  </si>
-  <si>
-    <t>sophie.martin@exemple.fr</t>
-  </si>
-  <si>
-    <t>0687654321</t>
-  </si>
-  <si>
-    <t>22/07/1975</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>69 - Rhône</t>
-  </si>
-  <si>
-    <t>45 Avenue des Champs, 69001 Lyon</t>
-  </si>
-  <si>
-    <t>Client Non Professionnel</t>
-  </si>
-  <si>
-    <t>Personnes Morales</t>
-  </si>
-  <si>
-    <t>Raison sociale *</t>
-  </si>
-  <si>
-    <t>N° SIREN *</t>
-  </si>
-  <si>
-    <t>E-mail du représentant légal *</t>
-  </si>
-  <si>
-    <t>Prénom du représentant légal</t>
-  </si>
-  <si>
-    <t>Nom du représentant légal</t>
-  </si>
-  <si>
-    <t>Adresse du siège social *</t>
-  </si>
-  <si>
-    <t>Résidence Fiscale 1 du représentant légal</t>
-  </si>
-  <si>
-    <t>Département de naissance du représentant</t>
-  </si>
-  <si>
-    <t>ACME Corporation</t>
-  </si>
-  <si>
     <t>contact@acme-corp.fr</t>
   </si>
   <si>
@@ -303,24 +261,18 @@
     <t>10 Boulevard des Entreprises, 92000 Nanterre</t>
   </si>
   <si>
-    <t>Contrepartie Éligible</t>
-  </si>
-  <si>
     <t>Cabinet Finance Pro</t>
   </si>
   <si>
     <t>info@financepro.fr</t>
   </si>
   <si>
-    <t>CGP100</t>
+    <t>Tech Innovations SAS</t>
   </si>
   <si>
     <t>987654321</t>
   </si>
   <si>
-    <t>Tech Innovations SAS</t>
-  </si>
-  <si>
     <t>dirigeant@tech-innov.fr</t>
   </si>
   <si>
@@ -354,9 +306,6 @@
     <t>Prénom(s) de l'investisseur. Exemple : Jean</t>
   </si>
   <si>
-    <t>Nom d'usage si différent du nom de famille. Optionnel.</t>
-  </si>
-  <si>
     <t>Adresse e-mail valide. Doit contenir un @. Exemple : jean.dupont@exemple.fr</t>
   </si>
   <si>
@@ -378,22 +327,7 @@
     <t>Pays de résidence fiscale principal. Exemple : France</t>
   </si>
   <si>
-    <t>Personne Politiquement Exposée. Valeurs possibles : Oui ou Non</t>
-  </si>
-  <si>
-    <t>Catégorie MiFID. Exemples : Client Professionnel, Client Non Professionnel, Contrepartie Éligible</t>
-  </si>
-  <si>
-    <t>Date de transfert/souscription. Format : jj/mm/aaaa. Exemple : 01/01/2024</t>
-  </si>
-  <si>
-    <t>Date de validation par le back-office. Format : jj/mm/aaaa. Optionnel.</t>
-  </si>
-  <si>
-    <t>Compte PEA actif. Valeurs : Oui, Non, ou vide</t>
-  </si>
-  <si>
-    <t>Numéro du compte PEA si applicable. Optionnel.</t>
+    <t>Date de transfert/souscription (utilisée comme date d'émission). Format : jj/mm/aaaa. Exemple : 01/01/2024</t>
   </si>
   <si>
     <t>Nom du Conseiller en Gestion de Patrimoine. Optionnel.</t>
@@ -402,12 +336,6 @@
     <t>Adresse e-mail du CGP. Optionnel.</t>
   </si>
   <si>
-    <t>Code identifiant du CGP. Optionnel.</t>
-  </si>
-  <si>
-    <t>Numéro SIREN du CGP (9 chiffres). Optionnel.</t>
-  </si>
-  <si>
     <t>PERSONNES MORALES</t>
   </si>
   <si>
@@ -438,22 +366,7 @@
     <t>Adresse complète du siège social. Exemple : 10 Boulevard des Entreprises, 92000 Nanterre</t>
   </si>
   <si>
-    <t>Pays de résidence fiscale du représentant. Exemple : France</t>
-  </si>
-  <si>
     <t>Département de naissance du représentant légal. Exemple : 75 - Paris</t>
-  </si>
-  <si>
-    <t>Représentant Politiquement Exposé. Valeurs possibles : Oui ou Non</t>
-  </si>
-  <si>
-    <t>Catégorie MiFID. Exemples : Client Professionnel, Contrepartie Éligible</t>
-  </si>
-  <si>
-    <t>Compte PEA-PME actif. Valeurs : Oui, Non, ou vide</t>
-  </si>
-  <si>
-    <t>Numéro du compte PEA-PME si applicable. Optionnel.</t>
   </si>
 </sst>
 </file>
@@ -948,7 +861,7 @@
   <sheetPr>
     <tabColor rgb="FF2563EB"/>
   </sheetPr>
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A42"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="100" customWidth="1"/>
@@ -1040,78 +953,93 @@
         <v>15</v>
       </c>
     </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>16</v>
+      <c r="A23" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>18</v>
+      <c r="A26" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>20</v>
+      <c r="A29" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A38" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="1" algorithmName="SHA-512" hashValue="CZhEBXNvzDVn4+J3ZPuhkumzGewvoLGwteP09uGbegQ2AfWJ5ihNjOiyMdsfdkT9MDspc8o7QJmsoEocvXM60w==" saltValue="HRO34n77rao/cG/sWLYkgg==" spinCount="100000"/>
+  <sheetProtection sheet="1" algorithmName="SHA-512" hashValue="vx6ZXz+ABS2xgtaaiPuKM5GIBTrOnCqxM+gC9BirENh/laH3eFWgrscS9UGOvzTVfaKoU7YkPwPDVrnrtJ99Vw==" saltValue="/IchE7XKid4/cEaNT5W2vQ==" spinCount="100000"/>
   <mergeCells count="1">
     <mergeCell ref="A1:A3"/>
   </mergeCells>
@@ -1125,7 +1053,7 @@
   <sheetPr>
     <tabColor rgb="FF10B981"/>
   </sheetPr>
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:N30"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
@@ -1136,21 +1064,15 @@
     <col min="6" max="7" width="25" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="11" width="35" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="20" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="30" customWidth="1"/>
-    <col min="18" max="18" width="25" customWidth="1"/>
-    <col min="19" max="19" width="30" customWidth="1"/>
-    <col min="20" max="22" width="15" customWidth="1"/>
+    <col min="10" max="10" width="35" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="25" customWidth="1"/>
+    <col min="13" max="14" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1165,84 +1087,52 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>100</v>
       </c>
@@ -1250,67 +1140,43 @@
         <v>10000</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>50</v>
       </c>
@@ -1318,221 +1184,175 @@
         <v>5000</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-    </row>
-    <row r="15" spans="12:13" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="12:13" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1546,82 +1366,49 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="O18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="T18" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="U18" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>500</v>
       </c>
@@ -1629,64 +1416,40 @@
         <v>50000</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="R19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="U19" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>200</v>
       </c>
@@ -1694,64 +1457,40 @@
         <v>20000</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="R20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="T20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="U20" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1759,11 +1498,9 @@
       <c r="E21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -1771,11 +1508,9 @@
       <c r="E22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1783,11 +1518,9 @@
       <c r="E23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -1795,11 +1528,9 @@
       <c r="E24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1807,11 +1538,9 @@
       <c r="E25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -1819,11 +1548,9 @@
       <c r="E26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1831,11 +1558,9 @@
       <c r="E27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1843,11 +1568,9 @@
       <c r="E28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1855,11 +1578,9 @@
       <c r="E29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -1867,26 +1588,13 @@
       <c r="E30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
+      <c r="K30" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A17:V17"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A17:M17"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="L19:L30">
-      <formula1>"Oui,Non"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="M10:M14">
-      <formula1>"Oui,Non"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="M3:M14">
-      <formula1>"Oui,Non"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
@@ -1897,7 +1605,7 @@
   <sheetPr>
     <tabColor rgb="FFFBBF24"/>
   </sheetPr>
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B33"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
@@ -1906,366 +1614,238 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B1" s="12"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>125</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>131</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" algorithmName="SHA-512" hashValue="HaCsHs54Lmw2lR8byK8Z1Gi2OAuUlT63eP4oLVUMykzVu0+/jwR9L+Ujs9tgr7cTwrk7VQhY2joQzKGQe2KqRw==" saltValue="6TaxuCgmSClAmnZ4XnZ1rw==" spinCount="100000"/>
+  <sheetProtection sheet="1" algorithmName="SHA-512" hashValue="ucoIm6PRZLyhIZoUhCuvFwaaMdGcmk+Jet94cIc5G4fzlU9rG+krvcTmW43j5QoGbERDP2KBlOWOhULZp2Yfbw==" saltValue="pu9JXkzKzVdkIXdkpzi8/w==" spinCount="100000"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
